--- a/Scheveningen/Excel/Write_to/exp/Horizon.xlsx
+++ b/Scheveningen/Excel/Write_to/exp/Horizon.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:LD217"/>
+  <dimension ref="A1:LV242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:316">
+    <row r="1" spans="1:334">
       <c r="B1" s="1">
         <v>43906.75</v>
       </c>
@@ -1321,8 +1321,62 @@
       <c r="LD1" s="1">
         <v>44251.41666666666</v>
       </c>
+      <c r="LE1" s="1">
+        <v>44251.58333333334</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>44251.75</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>44251.91666666666</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>44252.08333333334</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>44252.25</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>44252.41666666666</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>44252.58333333334</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>44252.75</v>
+      </c>
+      <c r="LM1" s="1">
+        <v>44252.91666666666</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>44253.08333333334</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>44253.25</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>44253.41666666666</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>44253.58333333334</v>
+      </c>
+      <c r="LR1" s="1">
+        <v>44253.75</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>44253.91666666666</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>44254.08333333334</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>44254.25</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>44254.41666666666</v>
+      </c>
     </row>
-    <row r="2" spans="1:316">
+    <row r="2" spans="1:334">
       <c r="A2" s="1">
         <v>43906.74825936343</v>
       </c>
@@ -1423,7 +1477,7 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row r="3" spans="1:316">
+    <row r="3" spans="1:334">
       <c r="A3" s="1">
         <v>43906.87329583333</v>
       </c>
@@ -1521,7 +1575,7 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row r="4" spans="1:316">
+    <row r="4" spans="1:334">
       <c r="A4" s="1">
         <v>43906.99833630787</v>
       </c>
@@ -1616,7 +1670,7 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row r="5" spans="1:316">
+    <row r="5" spans="1:334">
       <c r="A5" s="1">
         <v>43907.12337648148</v>
       </c>
@@ -1717,7 +1771,7 @@
         <v>-1.16</v>
       </c>
     </row>
-    <row r="6" spans="1:316">
+    <row r="6" spans="1:334">
       <c r="A6" s="1">
         <v>43907.24841743056</v>
       </c>
@@ -1818,7 +1872,7 @@
         <v>-1.16</v>
       </c>
     </row>
-    <row r="7" spans="1:316">
+    <row r="7" spans="1:334">
       <c r="A7" s="1">
         <v>43907.37346134259</v>
       </c>
@@ -1916,7 +1970,7 @@
         <v>-1.16</v>
       </c>
     </row>
-    <row r="8" spans="1:316">
+    <row r="8" spans="1:334">
       <c r="A8" s="1">
         <v>43907.49850579861</v>
       </c>
@@ -2011,7 +2065,7 @@
         <v>-1.16</v>
       </c>
     </row>
-    <row r="9" spans="1:316">
+    <row r="9" spans="1:334">
       <c r="A9" s="1">
         <v>43907.62355356482</v>
       </c>
@@ -2112,7 +2166,7 @@
         <v>-0.89</v>
       </c>
     </row>
-    <row r="10" spans="1:316">
+    <row r="10" spans="1:334">
       <c r="A10" s="1">
         <v>43907.74859925926</v>
       </c>
@@ -2213,7 +2267,7 @@
         <v>-0.89</v>
       </c>
     </row>
-    <row r="11" spans="1:316">
+    <row r="11" spans="1:334">
       <c r="A11" s="1">
         <v>43907.87365318287</v>
       </c>
@@ -2311,7 +2365,7 @@
         <v>-0.89</v>
       </c>
     </row>
-    <row r="12" spans="1:316">
+    <row r="12" spans="1:334">
       <c r="A12" s="1">
         <v>43907.99870275463</v>
       </c>
@@ -2406,7 +2460,7 @@
         <v>-0.89</v>
       </c>
     </row>
-    <row r="13" spans="1:316">
+    <row r="13" spans="1:334">
       <c r="A13" s="1">
         <v>43908.12375130787</v>
       </c>
@@ -2507,7 +2561,7 @@
         <v>-1.08</v>
       </c>
     </row>
-    <row r="14" spans="1:316">
+    <row r="14" spans="1:334">
       <c r="A14" s="1">
         <v>43908.24880013889</v>
       </c>
@@ -2608,7 +2662,7 @@
         <v>-1.08</v>
       </c>
     </row>
-    <row r="15" spans="1:316">
+    <row r="15" spans="1:334">
       <c r="A15" s="1">
         <v>43908.37385623842</v>
       </c>
@@ -2706,7 +2760,7 @@
         <v>-1.08</v>
       </c>
     </row>
-    <row r="16" spans="1:316">
+    <row r="16" spans="1:334">
       <c r="A16" s="1">
         <v>43908.49890848379</v>
       </c>
@@ -21740,7 +21794,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="209" spans="1:316">
+    <row r="209" spans="1:328">
       <c r="A209" s="1">
         <v>44243.80255283564</v>
       </c>
@@ -21838,7 +21892,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="210" spans="1:316">
+    <row r="210" spans="1:328">
       <c r="A210" s="1">
         <v>44243.92815278935</v>
       </c>
@@ -21933,7 +21987,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="211" spans="1:316">
+    <row r="211" spans="1:328">
       <c r="A211" s="1">
         <v>44244.7717903125</v>
       </c>
@@ -22031,7 +22085,7 @@
         <v>0.4718431000447516</v>
       </c>
     </row>
-    <row r="212" spans="1:316">
+    <row r="212" spans="1:328">
       <c r="A212" s="1">
         <v>44245.13210203704</v>
       </c>
@@ -22132,7 +22186,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:316">
+    <row r="213" spans="1:328">
       <c r="A213" s="1">
         <v>44245.25775068287</v>
       </c>
@@ -22230,7 +22284,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="214" spans="1:316">
+    <row r="214" spans="1:328">
       <c r="A214" s="1">
         <v>44245.68318436343</v>
       </c>
@@ -22331,7 +22385,7 @@
         <v>-0.8100000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:316">
+    <row r="215" spans="1:328">
       <c r="A215" s="1">
         <v>44245.81358671296</v>
       </c>
@@ -22429,7 +22483,7 @@
         <v>-0.8100000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:316">
+    <row r="216" spans="1:328">
       <c r="A216" s="1">
         <v>44245.94126873842</v>
       </c>
@@ -22524,9 +22578,9 @@
         <v>-0.8100000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:316">
+    <row r="217" spans="1:328">
       <c r="A217" s="1">
-        <v>44246.47248890644</v>
+        <v>44246.47248891203</v>
       </c>
       <c r="KA217">
         <v>-0.71</v>
@@ -22617,6 +22671,2486 @@
       </c>
       <c r="LD217">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:328">
+      <c r="A218" s="1">
+        <v>44246.48829269676</v>
+      </c>
+      <c r="KA218">
+        <v>-0.71</v>
+      </c>
+      <c r="KB218">
+        <v>0.04</v>
+      </c>
+      <c r="KC218">
+        <v>0.32</v>
+      </c>
+      <c r="KD218">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="KE218">
+        <v>-0.21</v>
+      </c>
+      <c r="KF218">
+        <v>0.48</v>
+      </c>
+      <c r="KG218">
+        <v>-0.49</v>
+      </c>
+      <c r="KH218">
+        <v>-0.08</v>
+      </c>
+      <c r="KI218">
+        <v>0.7</v>
+      </c>
+      <c r="KJ218">
+        <v>-0.48</v>
+      </c>
+      <c r="KK218">
+        <v>-0.44</v>
+      </c>
+      <c r="KL218">
+        <v>0.5</v>
+      </c>
+      <c r="KM218">
+        <v>-0.41</v>
+      </c>
+      <c r="KN218">
+        <v>-0.31</v>
+      </c>
+      <c r="KO218">
+        <v>0.86</v>
+      </c>
+      <c r="KP218">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ218">
+        <v>-0.38</v>
+      </c>
+      <c r="KR218">
+        <v>0.65</v>
+      </c>
+      <c r="KS218">
+        <v>0.1</v>
+      </c>
+      <c r="KT218">
+        <v>-0.45</v>
+      </c>
+      <c r="KU218">
+        <v>0.2446531009962041</v>
+      </c>
+      <c r="KV218">
+        <v>0.3124820729539771</v>
+      </c>
+      <c r="KW218">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="KX218">
+        <v>-0.17</v>
+      </c>
+      <c r="KY218">
+        <v>0.33</v>
+      </c>
+      <c r="KZ218">
+        <v>-0.5888382311115792</v>
+      </c>
+      <c r="LA218">
+        <v>-0.7378310579424951</v>
+      </c>
+      <c r="LB218">
+        <v>0.19</v>
+      </c>
+      <c r="LC218">
+        <v>-0.53</v>
+      </c>
+      <c r="LD218">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:328">
+      <c r="A219" s="1">
+        <v>44246.49222960648</v>
+      </c>
+      <c r="KA219">
+        <v>-0.71</v>
+      </c>
+      <c r="KB219">
+        <v>0.04</v>
+      </c>
+      <c r="KC219">
+        <v>0.32</v>
+      </c>
+      <c r="KD219">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="KE219">
+        <v>-0.21</v>
+      </c>
+      <c r="KF219">
+        <v>0.48</v>
+      </c>
+      <c r="KG219">
+        <v>-0.49</v>
+      </c>
+      <c r="KH219">
+        <v>-0.08</v>
+      </c>
+      <c r="KI219">
+        <v>0.7</v>
+      </c>
+      <c r="KJ219">
+        <v>-0.48</v>
+      </c>
+      <c r="KK219">
+        <v>-0.44</v>
+      </c>
+      <c r="KL219">
+        <v>0.5</v>
+      </c>
+      <c r="KM219">
+        <v>-0.41</v>
+      </c>
+      <c r="KN219">
+        <v>-0.31</v>
+      </c>
+      <c r="KO219">
+        <v>0.86</v>
+      </c>
+      <c r="KP219">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ219">
+        <v>-0.38</v>
+      </c>
+      <c r="KR219">
+        <v>0.65</v>
+      </c>
+      <c r="KS219">
+        <v>0.1</v>
+      </c>
+      <c r="KT219">
+        <v>-0.45</v>
+      </c>
+      <c r="KU219">
+        <v>0.2446531009962041</v>
+      </c>
+      <c r="KV219">
+        <v>0.3124820729539771</v>
+      </c>
+      <c r="KW219">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="KX219">
+        <v>-0.17</v>
+      </c>
+      <c r="KY219">
+        <v>0.33</v>
+      </c>
+      <c r="KZ219">
+        <v>-0.5888382311115792</v>
+      </c>
+      <c r="LA219">
+        <v>-0.7378310579424951</v>
+      </c>
+      <c r="LB219">
+        <v>0.19</v>
+      </c>
+      <c r="LC219">
+        <v>-0.53</v>
+      </c>
+      <c r="LD219">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:328">
+      <c r="A220" s="1">
+        <v>44246.4960036574</v>
+      </c>
+      <c r="KA220">
+        <v>-0.71</v>
+      </c>
+      <c r="KB220">
+        <v>0.04</v>
+      </c>
+      <c r="KC220">
+        <v>0.32</v>
+      </c>
+      <c r="KD220">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="KE220">
+        <v>-0.21</v>
+      </c>
+      <c r="KF220">
+        <v>0.48</v>
+      </c>
+      <c r="KG220">
+        <v>-0.49</v>
+      </c>
+      <c r="KH220">
+        <v>-0.08</v>
+      </c>
+      <c r="KI220">
+        <v>0.7</v>
+      </c>
+      <c r="KJ220">
+        <v>-0.48</v>
+      </c>
+      <c r="KK220">
+        <v>-0.44</v>
+      </c>
+      <c r="KL220">
+        <v>0.5</v>
+      </c>
+      <c r="KM220">
+        <v>-0.41</v>
+      </c>
+      <c r="KN220">
+        <v>-0.31</v>
+      </c>
+      <c r="KO220">
+        <v>0.86</v>
+      </c>
+      <c r="KP220">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ220">
+        <v>-0.38</v>
+      </c>
+      <c r="KR220">
+        <v>0.65</v>
+      </c>
+      <c r="KS220">
+        <v>0.1</v>
+      </c>
+      <c r="KT220">
+        <v>-0.45</v>
+      </c>
+      <c r="KU220">
+        <v>0.2446531009962041</v>
+      </c>
+      <c r="KV220">
+        <v>0.3124820729539771</v>
+      </c>
+      <c r="KW220">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="KX220">
+        <v>-0.17</v>
+      </c>
+      <c r="KY220">
+        <v>0.33</v>
+      </c>
+      <c r="KZ220">
+        <v>-0.5888382311115792</v>
+      </c>
+      <c r="LA220">
+        <v>-0.7378310579424951</v>
+      </c>
+      <c r="LB220">
+        <v>0.19</v>
+      </c>
+      <c r="LC220">
+        <v>-0.53</v>
+      </c>
+      <c r="LD220">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:328">
+      <c r="A221" s="1">
+        <v>44246.49699503472</v>
+      </c>
+      <c r="KA221">
+        <v>-0.71</v>
+      </c>
+      <c r="KB221">
+        <v>0.04</v>
+      </c>
+      <c r="KC221">
+        <v>0.32</v>
+      </c>
+      <c r="KD221">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="KE221">
+        <v>-0.21</v>
+      </c>
+      <c r="KF221">
+        <v>0.48</v>
+      </c>
+      <c r="KG221">
+        <v>-0.49</v>
+      </c>
+      <c r="KH221">
+        <v>-0.08</v>
+      </c>
+      <c r="KI221">
+        <v>0.7</v>
+      </c>
+      <c r="KJ221">
+        <v>-0.48</v>
+      </c>
+      <c r="KK221">
+        <v>-0.44</v>
+      </c>
+      <c r="KL221">
+        <v>0.5</v>
+      </c>
+      <c r="KM221">
+        <v>-0.41</v>
+      </c>
+      <c r="KN221">
+        <v>-0.31</v>
+      </c>
+      <c r="KO221">
+        <v>0.86</v>
+      </c>
+      <c r="KP221">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ221">
+        <v>-0.38</v>
+      </c>
+      <c r="KR221">
+        <v>0.65</v>
+      </c>
+      <c r="KS221">
+        <v>0.1</v>
+      </c>
+      <c r="KT221">
+        <v>-0.45</v>
+      </c>
+      <c r="KU221">
+        <v>0.2446531009962041</v>
+      </c>
+      <c r="KV221">
+        <v>0.3124820729539771</v>
+      </c>
+      <c r="KW221">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="KX221">
+        <v>-0.17</v>
+      </c>
+      <c r="KY221">
+        <v>0.33</v>
+      </c>
+      <c r="KZ221">
+        <v>-0.5888382311115792</v>
+      </c>
+      <c r="LA221">
+        <v>-0.7378310579424951</v>
+      </c>
+      <c r="LB221">
+        <v>0.19</v>
+      </c>
+      <c r="LC221">
+        <v>-0.53</v>
+      </c>
+      <c r="LD221">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:328">
+      <c r="A222" s="1">
+        <v>44246.62282976852</v>
+      </c>
+      <c r="KB222">
+        <v>0.13</v>
+      </c>
+      <c r="KC222">
+        <v>0.37</v>
+      </c>
+      <c r="KD222">
+        <v>-0.86</v>
+      </c>
+      <c r="KE222">
+        <v>-0.21</v>
+      </c>
+      <c r="KF222">
+        <v>0.49</v>
+      </c>
+      <c r="KG222">
+        <v>-0.53</v>
+      </c>
+      <c r="KH222">
+        <v>-0.08</v>
+      </c>
+      <c r="KI222">
+        <v>0.73</v>
+      </c>
+      <c r="KJ222">
+        <v>-0.4</v>
+      </c>
+      <c r="KK222">
+        <v>-0.45</v>
+      </c>
+      <c r="KL222">
+        <v>0.44</v>
+      </c>
+      <c r="KM222">
+        <v>-0.43</v>
+      </c>
+      <c r="KN222">
+        <v>-0.24</v>
+      </c>
+      <c r="KO222">
+        <v>0.95</v>
+      </c>
+      <c r="KP222">
+        <v>0.06</v>
+      </c>
+      <c r="KQ222">
+        <v>-0.31</v>
+      </c>
+      <c r="KR222">
+        <v>0.65</v>
+      </c>
+      <c r="KS222">
+        <v>0.06</v>
+      </c>
+      <c r="KT222">
+        <v>-0.47</v>
+      </c>
+      <c r="KU222">
+        <v>0.1946531009962041</v>
+      </c>
+      <c r="KV222">
+        <v>0.2824820729539771</v>
+      </c>
+      <c r="KW222">
+        <v>-0.54</v>
+      </c>
+      <c r="KX222">
+        <v>-0.09</v>
+      </c>
+      <c r="KY222">
+        <v>0.4</v>
+      </c>
+      <c r="KZ222">
+        <v>-0.4588382311115792</v>
+      </c>
+      <c r="LA222">
+        <v>-0.5978310579424951</v>
+      </c>
+      <c r="LB222">
+        <v>0.25</v>
+      </c>
+      <c r="LC222">
+        <v>-0.65</v>
+      </c>
+      <c r="LD222">
+        <v>-0.64</v>
+      </c>
+      <c r="LE222">
+        <v>0.79</v>
+      </c>
+      <c r="LF222">
+        <v>-0.17</v>
+      </c>
+      <c r="LG222">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:328">
+      <c r="A223" s="1">
+        <v>44246.74850989584</v>
+      </c>
+      <c r="KB223">
+        <v>0.13</v>
+      </c>
+      <c r="KC223">
+        <v>0.37</v>
+      </c>
+      <c r="KD223">
+        <v>-0.86</v>
+      </c>
+      <c r="KE223">
+        <v>-0.21</v>
+      </c>
+      <c r="KF223">
+        <v>0.49</v>
+      </c>
+      <c r="KG223">
+        <v>-0.53</v>
+      </c>
+      <c r="KH223">
+        <v>-0.08</v>
+      </c>
+      <c r="KI223">
+        <v>0.73</v>
+      </c>
+      <c r="KJ223">
+        <v>-0.4</v>
+      </c>
+      <c r="KK223">
+        <v>-0.45</v>
+      </c>
+      <c r="KL223">
+        <v>0.44</v>
+      </c>
+      <c r="KM223">
+        <v>-0.43</v>
+      </c>
+      <c r="KN223">
+        <v>-0.24</v>
+      </c>
+      <c r="KO223">
+        <v>0.95</v>
+      </c>
+      <c r="KP223">
+        <v>0.06</v>
+      </c>
+      <c r="KQ223">
+        <v>-0.31</v>
+      </c>
+      <c r="KR223">
+        <v>0.65</v>
+      </c>
+      <c r="KS223">
+        <v>0.06</v>
+      </c>
+      <c r="KT223">
+        <v>-0.47</v>
+      </c>
+      <c r="KU223">
+        <v>0.1946531009962041</v>
+      </c>
+      <c r="KV223">
+        <v>0.2824820729539771</v>
+      </c>
+      <c r="KW223">
+        <v>-0.54</v>
+      </c>
+      <c r="KX223">
+        <v>-0.09</v>
+      </c>
+      <c r="KY223">
+        <v>0.4</v>
+      </c>
+      <c r="KZ223">
+        <v>-0.4588382311115792</v>
+      </c>
+      <c r="LA223">
+        <v>-0.5978310579424951</v>
+      </c>
+      <c r="LB223">
+        <v>0.25</v>
+      </c>
+      <c r="LC223">
+        <v>-0.65</v>
+      </c>
+      <c r="LD223">
+        <v>-0.64</v>
+      </c>
+      <c r="LE223">
+        <v>0.79</v>
+      </c>
+      <c r="LF223">
+        <v>-0.17</v>
+      </c>
+      <c r="LG223">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:328">
+      <c r="A224" s="1">
+        <v>44248.11895663194</v>
+      </c>
+      <c r="KK224">
+        <v>-0.47</v>
+      </c>
+      <c r="KL224">
+        <v>0.45</v>
+      </c>
+      <c r="KM224">
+        <v>-0.53</v>
+      </c>
+      <c r="KN224">
+        <v>-0.29</v>
+      </c>
+      <c r="KO224">
+        <v>1.03</v>
+      </c>
+      <c r="KP224">
+        <v>0.04</v>
+      </c>
+      <c r="KQ224">
+        <v>-0.31</v>
+      </c>
+      <c r="KR224">
+        <v>0.74</v>
+      </c>
+      <c r="KS224">
+        <v>0</v>
+      </c>
+      <c r="KT224">
+        <v>-0.65</v>
+      </c>
+      <c r="KU224">
+        <v>0.08</v>
+      </c>
+      <c r="KV224">
+        <v>0.23</v>
+      </c>
+      <c r="KW224">
+        <v>-0.49</v>
+      </c>
+      <c r="KX224">
+        <v>-0.06</v>
+      </c>
+      <c r="KY224">
+        <v>0.4100160600065895</v>
+      </c>
+      <c r="KZ224">
+        <v>-0.4885447850883906</v>
+      </c>
+      <c r="LA224">
+        <v>-0.79</v>
+      </c>
+      <c r="LB224">
+        <v>0.16</v>
+      </c>
+      <c r="LC224">
+        <v>-0.72</v>
+      </c>
+      <c r="LD224">
+        <v>-0.7</v>
+      </c>
+      <c r="LE224">
+        <v>0.71</v>
+      </c>
+      <c r="LF224">
+        <v>-0.13</v>
+      </c>
+      <c r="LG224">
+        <v>-0.55</v>
+      </c>
+      <c r="LH224">
+        <v>0.86</v>
+      </c>
+      <c r="LI224">
+        <v>-0.004099155007702054</v>
+      </c>
+      <c r="LJ224">
+        <v>-0.3901728527161455</v>
+      </c>
+      <c r="LK224">
+        <v>1.239675813092376</v>
+      </c>
+      <c r="LL224">
+        <v>0.1357694071921262</v>
+      </c>
+      <c r="LM224">
+        <v>-0.3843834118296447</v>
+      </c>
+      <c r="LN224">
+        <v>0.8912167587423906</v>
+      </c>
+      <c r="LO224">
+        <v>-0.0448604816082503</v>
+      </c>
+      <c r="LP224">
+        <v>-0.5208986933804403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:334">
+      <c r="A225" s="1">
+        <v>44248.24465722223</v>
+      </c>
+      <c r="KK225">
+        <v>-0.47</v>
+      </c>
+      <c r="KL225">
+        <v>0.45</v>
+      </c>
+      <c r="KM225">
+        <v>-0.53</v>
+      </c>
+      <c r="KN225">
+        <v>-0.29</v>
+      </c>
+      <c r="KO225">
+        <v>1.03</v>
+      </c>
+      <c r="KP225">
+        <v>0.04</v>
+      </c>
+      <c r="KQ225">
+        <v>-0.31</v>
+      </c>
+      <c r="KR225">
+        <v>0.74</v>
+      </c>
+      <c r="KS225">
+        <v>0</v>
+      </c>
+      <c r="KT225">
+        <v>-0.65</v>
+      </c>
+      <c r="KU225">
+        <v>0.08</v>
+      </c>
+      <c r="KV225">
+        <v>0.23</v>
+      </c>
+      <c r="KW225">
+        <v>-0.49</v>
+      </c>
+      <c r="KX225">
+        <v>-0.06</v>
+      </c>
+      <c r="KY225">
+        <v>0.4100160600065895</v>
+      </c>
+      <c r="KZ225">
+        <v>-0.4885447850883906</v>
+      </c>
+      <c r="LA225">
+        <v>-0.79</v>
+      </c>
+      <c r="LB225">
+        <v>0.16</v>
+      </c>
+      <c r="LC225">
+        <v>-0.72</v>
+      </c>
+      <c r="LD225">
+        <v>-0.7</v>
+      </c>
+      <c r="LE225">
+        <v>0.71</v>
+      </c>
+      <c r="LF225">
+        <v>-0.13</v>
+      </c>
+      <c r="LG225">
+        <v>-0.55</v>
+      </c>
+      <c r="LH225">
+        <v>0.86</v>
+      </c>
+      <c r="LI225">
+        <v>-0.004099155007702054</v>
+      </c>
+      <c r="LJ225">
+        <v>-0.3901728527161455</v>
+      </c>
+      <c r="LK225">
+        <v>1.239675813092376</v>
+      </c>
+      <c r="LL225">
+        <v>0.1357694071921262</v>
+      </c>
+      <c r="LM225">
+        <v>-0.3843834118296447</v>
+      </c>
+      <c r="LN225">
+        <v>0.8912167587423906</v>
+      </c>
+      <c r="LO225">
+        <v>-0.0448604816082503</v>
+      </c>
+      <c r="LP225">
+        <v>-0.5208986933804403</v>
+      </c>
+    </row>
+    <row r="226" spans="1:334">
+      <c r="A226" s="1">
+        <v>44248.37035751157</v>
+      </c>
+      <c r="KL226">
+        <v>0.46</v>
+      </c>
+      <c r="KM226">
+        <v>-0.43</v>
+      </c>
+      <c r="KN226">
+        <v>-0.26</v>
+      </c>
+      <c r="KO226">
+        <v>0.96</v>
+      </c>
+      <c r="KP226">
+        <v>0.01</v>
+      </c>
+      <c r="KQ226">
+        <v>-0.31</v>
+      </c>
+      <c r="KR226">
+        <v>0.75</v>
+      </c>
+      <c r="KS226">
+        <v>0.01</v>
+      </c>
+      <c r="KT226">
+        <v>-0.63</v>
+      </c>
+      <c r="KU226">
+        <v>0.19</v>
+      </c>
+      <c r="KV226">
+        <v>0.31</v>
+      </c>
+      <c r="KW226">
+        <v>-0.49</v>
+      </c>
+      <c r="KX226">
+        <v>-0.06</v>
+      </c>
+      <c r="KY226">
+        <v>0.4100160600065895</v>
+      </c>
+      <c r="KZ226">
+        <v>-0.4885447850883906</v>
+      </c>
+      <c r="LA226">
+        <v>-0.79</v>
+      </c>
+      <c r="LB226">
+        <v>0.16</v>
+      </c>
+      <c r="LC226">
+        <v>-0.72</v>
+      </c>
+      <c r="LD226">
+        <v>-0.7</v>
+      </c>
+      <c r="LE226">
+        <v>0.71</v>
+      </c>
+      <c r="LF226">
+        <v>-0.13</v>
+      </c>
+      <c r="LG226">
+        <v>-0.55</v>
+      </c>
+      <c r="LH226">
+        <v>0.86</v>
+      </c>
+      <c r="LI226">
+        <v>-0.004099155007702054</v>
+      </c>
+      <c r="LJ226">
+        <v>-0.3901728527161455</v>
+      </c>
+      <c r="LK226">
+        <v>1.239675813092376</v>
+      </c>
+      <c r="LL226">
+        <v>0.1357694071921262</v>
+      </c>
+      <c r="LM226">
+        <v>-0.3843834118296447</v>
+      </c>
+      <c r="LN226">
+        <v>0.8912167587423906</v>
+      </c>
+      <c r="LO226">
+        <v>-0.0448604816082503</v>
+      </c>
+      <c r="LP226">
+        <v>-0.5208986933804403</v>
+      </c>
+    </row>
+    <row r="227" spans="1:334">
+      <c r="A227" s="1">
+        <v>44248.49606403935</v>
+      </c>
+      <c r="KM227">
+        <v>-0.43</v>
+      </c>
+      <c r="KN227">
+        <v>-0.26</v>
+      </c>
+      <c r="KO227">
+        <v>0.96</v>
+      </c>
+      <c r="KP227">
+        <v>0.01</v>
+      </c>
+      <c r="KQ227">
+        <v>-0.31</v>
+      </c>
+      <c r="KR227">
+        <v>0.75</v>
+      </c>
+      <c r="KS227">
+        <v>0.01</v>
+      </c>
+      <c r="KT227">
+        <v>-0.63</v>
+      </c>
+      <c r="KU227">
+        <v>0.19</v>
+      </c>
+      <c r="KV227">
+        <v>0.31</v>
+      </c>
+      <c r="KW227">
+        <v>-0.49</v>
+      </c>
+      <c r="KX227">
+        <v>-0.06</v>
+      </c>
+      <c r="KY227">
+        <v>0.41</v>
+      </c>
+      <c r="KZ227">
+        <v>-0.6799818033407777</v>
+      </c>
+      <c r="LA227">
+        <v>-0.79</v>
+      </c>
+      <c r="LB227">
+        <v>0.16</v>
+      </c>
+      <c r="LC227">
+        <v>-0.72</v>
+      </c>
+      <c r="LD227">
+        <v>-0.7</v>
+      </c>
+      <c r="LE227">
+        <v>0.71</v>
+      </c>
+      <c r="LF227">
+        <v>-0.13</v>
+      </c>
+      <c r="LG227">
+        <v>-0.55</v>
+      </c>
+      <c r="LH227">
+        <v>0.86</v>
+      </c>
+      <c r="LI227">
+        <v>-0.0635681509109579</v>
+      </c>
+      <c r="LJ227">
+        <v>-0.4114113391568746</v>
+      </c>
+      <c r="LK227">
+        <v>1.236091262062202</v>
+      </c>
+      <c r="LL227">
+        <v>0.1272915379793195</v>
+      </c>
+      <c r="LM227">
+        <v>-0.4061053717919423</v>
+      </c>
+      <c r="LN227">
+        <v>0.9100400481443641</v>
+      </c>
+      <c r="LO227">
+        <v>-0.01980461977516451</v>
+      </c>
+      <c r="LP227">
+        <v>-0.4559734796150597</v>
+      </c>
+    </row>
+    <row r="228" spans="1:334">
+      <c r="A228" s="1">
+        <v>44248.5679316088</v>
+      </c>
+      <c r="KM228">
+        <v>-0.38</v>
+      </c>
+      <c r="KN228">
+        <v>-0.21</v>
+      </c>
+      <c r="KO228">
+        <v>0.98</v>
+      </c>
+      <c r="KP228">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ228">
+        <v>-0.32</v>
+      </c>
+      <c r="KR228">
+        <v>0.76</v>
+      </c>
+      <c r="KS228">
+        <v>-0.01</v>
+      </c>
+      <c r="KT228">
+        <v>-0.64</v>
+      </c>
+      <c r="KU228">
+        <v>0.22</v>
+      </c>
+      <c r="KV228">
+        <v>0.33</v>
+      </c>
+      <c r="KW228">
+        <v>-0.53</v>
+      </c>
+      <c r="KX228">
+        <v>-0.08</v>
+      </c>
+      <c r="KY228">
+        <v>0.41</v>
+      </c>
+      <c r="KZ228">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA228">
+        <v>-0.8</v>
+      </c>
+      <c r="LB228">
+        <v>0.19</v>
+      </c>
+      <c r="LC228">
+        <v>-0.66</v>
+      </c>
+      <c r="LD228">
+        <v>-0.65</v>
+      </c>
+      <c r="LE228">
+        <v>0.68</v>
+      </c>
+      <c r="LF228">
+        <v>-0.2</v>
+      </c>
+      <c r="LG228">
+        <v>-0.55</v>
+      </c>
+      <c r="LH228">
+        <v>0.86</v>
+      </c>
+      <c r="LI228">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ228">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK228">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL228">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM228">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN228">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO228">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP228">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ228">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR228">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS228">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="229" spans="1:334">
+      <c r="A229" s="1">
+        <v>44248.5683340625</v>
+      </c>
+      <c r="KM229">
+        <v>-0.38</v>
+      </c>
+      <c r="KN229">
+        <v>-0.21</v>
+      </c>
+      <c r="KO229">
+        <v>0.98</v>
+      </c>
+      <c r="KP229">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ229">
+        <v>-0.32</v>
+      </c>
+      <c r="KR229">
+        <v>0.76</v>
+      </c>
+      <c r="KS229">
+        <v>-0.01</v>
+      </c>
+      <c r="KT229">
+        <v>-0.64</v>
+      </c>
+      <c r="KU229">
+        <v>0.22</v>
+      </c>
+      <c r="KV229">
+        <v>0.33</v>
+      </c>
+      <c r="KW229">
+        <v>-0.53</v>
+      </c>
+      <c r="KX229">
+        <v>-0.08</v>
+      </c>
+      <c r="KY229">
+        <v>0.41</v>
+      </c>
+      <c r="KZ229">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA229">
+        <v>-0.8</v>
+      </c>
+      <c r="LB229">
+        <v>0.19</v>
+      </c>
+      <c r="LC229">
+        <v>-0.66</v>
+      </c>
+      <c r="LD229">
+        <v>-0.65</v>
+      </c>
+      <c r="LE229">
+        <v>0.68</v>
+      </c>
+      <c r="LF229">
+        <v>-0.2</v>
+      </c>
+      <c r="LG229">
+        <v>-0.55</v>
+      </c>
+      <c r="LH229">
+        <v>0.86</v>
+      </c>
+      <c r="LI229">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ229">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK229">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL229">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM229">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN229">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO229">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP229">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ229">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR229">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS229">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="230" spans="1:334">
+      <c r="A230" s="1">
+        <v>44248.5709337037</v>
+      </c>
+      <c r="KM230">
+        <v>-0.38</v>
+      </c>
+      <c r="KN230">
+        <v>-0.21</v>
+      </c>
+      <c r="KO230">
+        <v>0.98</v>
+      </c>
+      <c r="KP230">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ230">
+        <v>-0.32</v>
+      </c>
+      <c r="KR230">
+        <v>0.76</v>
+      </c>
+      <c r="KS230">
+        <v>-0.01</v>
+      </c>
+      <c r="KT230">
+        <v>-0.64</v>
+      </c>
+      <c r="KU230">
+        <v>0.22</v>
+      </c>
+      <c r="KV230">
+        <v>0.33</v>
+      </c>
+      <c r="KW230">
+        <v>-0.53</v>
+      </c>
+      <c r="KX230">
+        <v>-0.08</v>
+      </c>
+      <c r="KY230">
+        <v>0.41</v>
+      </c>
+      <c r="KZ230">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA230">
+        <v>-0.8</v>
+      </c>
+      <c r="LB230">
+        <v>0.19</v>
+      </c>
+      <c r="LC230">
+        <v>-0.66</v>
+      </c>
+      <c r="LD230">
+        <v>-0.65</v>
+      </c>
+      <c r="LE230">
+        <v>0.68</v>
+      </c>
+      <c r="LF230">
+        <v>-0.2</v>
+      </c>
+      <c r="LG230">
+        <v>-0.55</v>
+      </c>
+      <c r="LH230">
+        <v>0.86</v>
+      </c>
+      <c r="LI230">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ230">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK230">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL230">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM230">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN230">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO230">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP230">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ230">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR230">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS230">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="231" spans="1:334">
+      <c r="A231" s="1">
+        <v>44248.58325681713</v>
+      </c>
+      <c r="KM231">
+        <v>-0.38</v>
+      </c>
+      <c r="KN231">
+        <v>-0.21</v>
+      </c>
+      <c r="KO231">
+        <v>0.98</v>
+      </c>
+      <c r="KP231">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ231">
+        <v>-0.32</v>
+      </c>
+      <c r="KR231">
+        <v>0.76</v>
+      </c>
+      <c r="KS231">
+        <v>-0.01</v>
+      </c>
+      <c r="KT231">
+        <v>-0.64</v>
+      </c>
+      <c r="KU231">
+        <v>0.22</v>
+      </c>
+      <c r="KV231">
+        <v>0.33</v>
+      </c>
+      <c r="KW231">
+        <v>-0.53</v>
+      </c>
+      <c r="KX231">
+        <v>-0.08</v>
+      </c>
+      <c r="KY231">
+        <v>0.41</v>
+      </c>
+      <c r="KZ231">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA231">
+        <v>-0.8</v>
+      </c>
+      <c r="LB231">
+        <v>0.19</v>
+      </c>
+      <c r="LC231">
+        <v>-0.66</v>
+      </c>
+      <c r="LD231">
+        <v>-0.65</v>
+      </c>
+      <c r="LE231">
+        <v>0.68</v>
+      </c>
+      <c r="LF231">
+        <v>-0.2</v>
+      </c>
+      <c r="LG231">
+        <v>-0.55</v>
+      </c>
+      <c r="LH231">
+        <v>0.86</v>
+      </c>
+      <c r="LI231">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ231">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK231">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL231">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM231">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN231">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO231">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP231">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ231">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR231">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS231">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="232" spans="1:334">
+      <c r="A232" s="1">
+        <v>44248.58549199074</v>
+      </c>
+      <c r="KN232">
+        <v>-0.21</v>
+      </c>
+      <c r="KO232">
+        <v>0.98</v>
+      </c>
+      <c r="KP232">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ232">
+        <v>-0.32</v>
+      </c>
+      <c r="KR232">
+        <v>0.76</v>
+      </c>
+      <c r="KS232">
+        <v>-0.01</v>
+      </c>
+      <c r="KT232">
+        <v>-0.64</v>
+      </c>
+      <c r="KU232">
+        <v>0.22</v>
+      </c>
+      <c r="KV232">
+        <v>0.33</v>
+      </c>
+      <c r="KW232">
+        <v>-0.53</v>
+      </c>
+      <c r="KX232">
+        <v>-0.08</v>
+      </c>
+      <c r="KY232">
+        <v>0.41</v>
+      </c>
+      <c r="KZ232">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA232">
+        <v>-0.8</v>
+      </c>
+      <c r="LB232">
+        <v>0.19</v>
+      </c>
+      <c r="LC232">
+        <v>-0.66</v>
+      </c>
+      <c r="LD232">
+        <v>-0.65</v>
+      </c>
+      <c r="LE232">
+        <v>0.68</v>
+      </c>
+      <c r="LF232">
+        <v>-0.2</v>
+      </c>
+      <c r="LG232">
+        <v>-0.55</v>
+      </c>
+      <c r="LH232">
+        <v>0.86</v>
+      </c>
+      <c r="LI232">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ232">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK232">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL232">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM232">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN232">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO232">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP232">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ232">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR232">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS232">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="233" spans="1:334">
+      <c r="A233" s="1">
+        <v>44248.58597876158</v>
+      </c>
+      <c r="KN233">
+        <v>-0.21</v>
+      </c>
+      <c r="KO233">
+        <v>0.98</v>
+      </c>
+      <c r="KP233">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ233">
+        <v>-0.32</v>
+      </c>
+      <c r="KR233">
+        <v>0.76</v>
+      </c>
+      <c r="KS233">
+        <v>-0.01</v>
+      </c>
+      <c r="KT233">
+        <v>-0.64</v>
+      </c>
+      <c r="KU233">
+        <v>0.22</v>
+      </c>
+      <c r="KV233">
+        <v>0.33</v>
+      </c>
+      <c r="KW233">
+        <v>-0.53</v>
+      </c>
+      <c r="KX233">
+        <v>-0.08</v>
+      </c>
+      <c r="KY233">
+        <v>0.41</v>
+      </c>
+      <c r="KZ233">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA233">
+        <v>-0.8</v>
+      </c>
+      <c r="LB233">
+        <v>0.19</v>
+      </c>
+      <c r="LC233">
+        <v>-0.66</v>
+      </c>
+      <c r="LD233">
+        <v>-0.65</v>
+      </c>
+      <c r="LE233">
+        <v>0.68</v>
+      </c>
+      <c r="LF233">
+        <v>-0.2</v>
+      </c>
+      <c r="LG233">
+        <v>-0.55</v>
+      </c>
+      <c r="LH233">
+        <v>0.86</v>
+      </c>
+      <c r="LI233">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ233">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK233">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL233">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM233">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN233">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO233">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP233">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ233">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR233">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS233">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="234" spans="1:334">
+      <c r="A234" s="1">
+        <v>44248.58691493056</v>
+      </c>
+      <c r="KN234">
+        <v>-0.21</v>
+      </c>
+      <c r="KO234">
+        <v>0.98</v>
+      </c>
+      <c r="KP234">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ234">
+        <v>-0.32</v>
+      </c>
+      <c r="KR234">
+        <v>0.76</v>
+      </c>
+      <c r="KS234">
+        <v>-0.01</v>
+      </c>
+      <c r="KT234">
+        <v>-0.64</v>
+      </c>
+      <c r="KU234">
+        <v>0.22</v>
+      </c>
+      <c r="KV234">
+        <v>0.33</v>
+      </c>
+      <c r="KW234">
+        <v>-0.53</v>
+      </c>
+      <c r="KX234">
+        <v>-0.08</v>
+      </c>
+      <c r="KY234">
+        <v>0.41</v>
+      </c>
+      <c r="KZ234">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA234">
+        <v>-0.8</v>
+      </c>
+      <c r="LB234">
+        <v>0.19</v>
+      </c>
+      <c r="LC234">
+        <v>-0.66</v>
+      </c>
+      <c r="LD234">
+        <v>-0.65</v>
+      </c>
+      <c r="LE234">
+        <v>0.68</v>
+      </c>
+      <c r="LF234">
+        <v>-0.2</v>
+      </c>
+      <c r="LG234">
+        <v>-0.55</v>
+      </c>
+      <c r="LH234">
+        <v>0.86</v>
+      </c>
+      <c r="LI234">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ234">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK234">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL234">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM234">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN234">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO234">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP234">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ234">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR234">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS234">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="235" spans="1:334">
+      <c r="A235" s="1">
+        <v>44248.58753608797</v>
+      </c>
+      <c r="KN235">
+        <v>-0.21</v>
+      </c>
+      <c r="KO235">
+        <v>0.98</v>
+      </c>
+      <c r="KP235">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ235">
+        <v>-0.32</v>
+      </c>
+      <c r="KR235">
+        <v>0.76</v>
+      </c>
+      <c r="KS235">
+        <v>-0.01</v>
+      </c>
+      <c r="KT235">
+        <v>-0.64</v>
+      </c>
+      <c r="KU235">
+        <v>0.22</v>
+      </c>
+      <c r="KV235">
+        <v>0.33</v>
+      </c>
+      <c r="KW235">
+        <v>-0.53</v>
+      </c>
+      <c r="KX235">
+        <v>-0.08</v>
+      </c>
+      <c r="KY235">
+        <v>0.41</v>
+      </c>
+      <c r="KZ235">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA235">
+        <v>-0.8</v>
+      </c>
+      <c r="LB235">
+        <v>0.19</v>
+      </c>
+      <c r="LC235">
+        <v>-0.66</v>
+      </c>
+      <c r="LD235">
+        <v>-0.65</v>
+      </c>
+      <c r="LE235">
+        <v>0.68</v>
+      </c>
+      <c r="LF235">
+        <v>-0.2</v>
+      </c>
+      <c r="LG235">
+        <v>-0.55</v>
+      </c>
+      <c r="LH235">
+        <v>0.86</v>
+      </c>
+      <c r="LI235">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ235">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK235">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL235">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM235">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN235">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO235">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP235">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ235">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR235">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS235">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="236" spans="1:334">
+      <c r="A236" s="1">
+        <v>44248.71341004629</v>
+      </c>
+      <c r="KN236">
+        <v>-0.21</v>
+      </c>
+      <c r="KO236">
+        <v>0.98</v>
+      </c>
+      <c r="KP236">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ236">
+        <v>-0.32</v>
+      </c>
+      <c r="KR236">
+        <v>0.76</v>
+      </c>
+      <c r="KS236">
+        <v>-0.01</v>
+      </c>
+      <c r="KT236">
+        <v>-0.64</v>
+      </c>
+      <c r="KU236">
+        <v>0.22</v>
+      </c>
+      <c r="KV236">
+        <v>0.33</v>
+      </c>
+      <c r="KW236">
+        <v>-0.53</v>
+      </c>
+      <c r="KX236">
+        <v>-0.08</v>
+      </c>
+      <c r="KY236">
+        <v>0.41</v>
+      </c>
+      <c r="KZ236">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA236">
+        <v>-0.8</v>
+      </c>
+      <c r="LB236">
+        <v>0.19</v>
+      </c>
+      <c r="LC236">
+        <v>-0.66</v>
+      </c>
+      <c r="LD236">
+        <v>-0.65</v>
+      </c>
+      <c r="LE236">
+        <v>0.68</v>
+      </c>
+      <c r="LF236">
+        <v>-0.2</v>
+      </c>
+      <c r="LG236">
+        <v>-0.55</v>
+      </c>
+      <c r="LH236">
+        <v>0.86</v>
+      </c>
+      <c r="LI236">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ236">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK236">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL236">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM236">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN236">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO236">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP236">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ236">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR236">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS236">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="237" spans="1:334">
+      <c r="A237" s="1">
+        <v>44248.81096582176</v>
+      </c>
+      <c r="KO237">
+        <v>0.98</v>
+      </c>
+      <c r="KP237">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ237">
+        <v>-0.32</v>
+      </c>
+      <c r="KR237">
+        <v>0.76</v>
+      </c>
+      <c r="KS237">
+        <v>-0.01</v>
+      </c>
+      <c r="KT237">
+        <v>-0.64</v>
+      </c>
+      <c r="KU237">
+        <v>0.22</v>
+      </c>
+      <c r="KV237">
+        <v>0.33</v>
+      </c>
+      <c r="KW237">
+        <v>-0.53</v>
+      </c>
+      <c r="KX237">
+        <v>-0.08</v>
+      </c>
+      <c r="KY237">
+        <v>0.41</v>
+      </c>
+      <c r="KZ237">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA237">
+        <v>-0.8</v>
+      </c>
+      <c r="LB237">
+        <v>0.19</v>
+      </c>
+      <c r="LC237">
+        <v>-0.66</v>
+      </c>
+      <c r="LD237">
+        <v>-0.65</v>
+      </c>
+      <c r="LE237">
+        <v>0.68</v>
+      </c>
+      <c r="LF237">
+        <v>-0.2</v>
+      </c>
+      <c r="LG237">
+        <v>-0.55</v>
+      </c>
+      <c r="LH237">
+        <v>0.86</v>
+      </c>
+      <c r="LI237">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ237">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK237">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL237">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM237">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN237">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO237">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP237">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ237">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR237">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS237">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="238" spans="1:334">
+      <c r="A238" s="1">
+        <v>44248.81151246528</v>
+      </c>
+      <c r="KO238">
+        <v>0.98</v>
+      </c>
+      <c r="KP238">
+        <v>-0.03</v>
+      </c>
+      <c r="KQ238">
+        <v>-0.32</v>
+      </c>
+      <c r="KR238">
+        <v>0.76</v>
+      </c>
+      <c r="KS238">
+        <v>-0.01</v>
+      </c>
+      <c r="KT238">
+        <v>-0.64</v>
+      </c>
+      <c r="KU238">
+        <v>0.22</v>
+      </c>
+      <c r="KV238">
+        <v>0.33</v>
+      </c>
+      <c r="KW238">
+        <v>-0.53</v>
+      </c>
+      <c r="KX238">
+        <v>-0.08</v>
+      </c>
+      <c r="KY238">
+        <v>0.41</v>
+      </c>
+      <c r="KZ238">
+        <v>-0.6999818033407776</v>
+      </c>
+      <c r="LA238">
+        <v>-0.8</v>
+      </c>
+      <c r="LB238">
+        <v>0.19</v>
+      </c>
+      <c r="LC238">
+        <v>-0.66</v>
+      </c>
+      <c r="LD238">
+        <v>-0.65</v>
+      </c>
+      <c r="LE238">
+        <v>0.68</v>
+      </c>
+      <c r="LF238">
+        <v>-0.2</v>
+      </c>
+      <c r="LG238">
+        <v>-0.55</v>
+      </c>
+      <c r="LH238">
+        <v>0.86</v>
+      </c>
+      <c r="LI238">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ238">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK238">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL238">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM238">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN238">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO238">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP238">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ238">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR238">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS238">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="239" spans="1:334">
+      <c r="A239" s="1">
+        <v>44248.9373522801</v>
+      </c>
+      <c r="KP239">
+        <v>0.01</v>
+      </c>
+      <c r="KQ239">
+        <v>-0.29</v>
+      </c>
+      <c r="KR239">
+        <v>0.73</v>
+      </c>
+      <c r="KS239">
+        <v>-0.03</v>
+      </c>
+      <c r="KT239">
+        <v>-0.65</v>
+      </c>
+      <c r="KU239">
+        <v>0.18</v>
+      </c>
+      <c r="KV239">
+        <v>0.3</v>
+      </c>
+      <c r="KW239">
+        <v>-0.55</v>
+      </c>
+      <c r="KX239">
+        <v>-0.03</v>
+      </c>
+      <c r="KY239">
+        <v>0.44</v>
+      </c>
+      <c r="KZ239">
+        <v>-0.6899818033407776</v>
+      </c>
+      <c r="LA239">
+        <v>-0.8</v>
+      </c>
+      <c r="LB239">
+        <v>0.19</v>
+      </c>
+      <c r="LC239">
+        <v>-0.66</v>
+      </c>
+      <c r="LD239">
+        <v>-0.65</v>
+      </c>
+      <c r="LE239">
+        <v>0.68</v>
+      </c>
+      <c r="LF239">
+        <v>-0.2</v>
+      </c>
+      <c r="LG239">
+        <v>-0.55</v>
+      </c>
+      <c r="LH239">
+        <v>0.86</v>
+      </c>
+      <c r="LI239">
+        <v>-0.05356815091095789</v>
+      </c>
+      <c r="LJ239">
+        <v>-0.3414113391568745</v>
+      </c>
+      <c r="LK239">
+        <v>1.306091262062202</v>
+      </c>
+      <c r="LL239">
+        <v>0.1772915379793195</v>
+      </c>
+      <c r="LM239">
+        <v>-0.3361053717919422</v>
+      </c>
+      <c r="LN239">
+        <v>0.9500400481443642</v>
+      </c>
+      <c r="LO239">
+        <v>0.02019538022483547</v>
+      </c>
+      <c r="LP239">
+        <v>-0.4259734796150597</v>
+      </c>
+      <c r="LQ239">
+        <v>1.007067079421412</v>
+      </c>
+      <c r="LR239">
+        <v>0.3163962904325723</v>
+      </c>
+      <c r="LS239">
+        <v>-0.3934377035014161</v>
+      </c>
+    </row>
+    <row r="240" spans="1:334">
+      <c r="A240" s="1">
+        <v>44249.32665976852</v>
+      </c>
+      <c r="KR240">
+        <v>0.8</v>
+      </c>
+      <c r="KS240">
+        <v>-0.06</v>
+      </c>
+      <c r="KT240">
+        <v>-0.66</v>
+      </c>
+      <c r="KU240">
+        <v>0.2875999191651539</v>
+      </c>
+      <c r="KV240">
+        <v>0.3748330566580146</v>
+      </c>
+      <c r="KW240">
+        <v>-0.5081108154253721</v>
+      </c>
+      <c r="KX240">
+        <v>-0.06</v>
+      </c>
+      <c r="KY240">
+        <v>0.44</v>
+      </c>
+      <c r="KZ240">
+        <v>-0.85</v>
+      </c>
+      <c r="LA240">
+        <v>-0.8</v>
+      </c>
+      <c r="LB240">
+        <v>0.27</v>
+      </c>
+      <c r="LC240">
+        <v>-0.51</v>
+      </c>
+      <c r="LD240">
+        <v>-0.49</v>
+      </c>
+      <c r="LE240">
+        <v>0.77</v>
+      </c>
+      <c r="LF240">
+        <v>-0.2</v>
+      </c>
+      <c r="LG240">
+        <v>-0.57</v>
+      </c>
+      <c r="LH240">
+        <v>0.87</v>
+      </c>
+      <c r="LI240">
+        <v>-0.08518042188185117</v>
+      </c>
+      <c r="LJ240">
+        <v>-0.3457899118301905</v>
+      </c>
+      <c r="LK240">
+        <v>1.269021508526655</v>
+      </c>
+      <c r="LL240">
+        <v>0.1447186682093004</v>
+      </c>
+      <c r="LM240">
+        <v>-0.3082831682982593</v>
+      </c>
+      <c r="LN240">
+        <v>0.974416282211682</v>
+      </c>
+      <c r="LO240">
+        <v>0.01338847405725901</v>
+      </c>
+      <c r="LP240">
+        <v>-0.5033176734265581</v>
+      </c>
+      <c r="LQ240">
+        <v>0.9056980871863685</v>
+      </c>
+      <c r="LR240">
+        <v>0.1700057275223986</v>
+      </c>
+      <c r="LS240">
+        <v>-0.5007154282850765</v>
+      </c>
+      <c r="LT240">
+        <v>0.3156920900516845</v>
+      </c>
+      <c r="LU240">
+        <v>0.1869298018336823</v>
+      </c>
+      <c r="LV240">
+        <v>-0.5858714532698478</v>
+      </c>
+    </row>
+    <row r="241" spans="1:334">
+      <c r="A241" s="1">
+        <v>44249.33036042824</v>
+      </c>
+      <c r="KR241">
+        <v>0.8</v>
+      </c>
+      <c r="KS241">
+        <v>-0.06</v>
+      </c>
+      <c r="KT241">
+        <v>-0.66</v>
+      </c>
+      <c r="KU241">
+        <v>0.2875999191651539</v>
+      </c>
+      <c r="KV241">
+        <v>0.3748330566580146</v>
+      </c>
+      <c r="KW241">
+        <v>-0.5081108154253721</v>
+      </c>
+      <c r="KX241">
+        <v>-0.06</v>
+      </c>
+      <c r="KY241">
+        <v>0.44</v>
+      </c>
+      <c r="KZ241">
+        <v>-0.85</v>
+      </c>
+      <c r="LA241">
+        <v>-0.8</v>
+      </c>
+      <c r="LB241">
+        <v>0.27</v>
+      </c>
+      <c r="LC241">
+        <v>-0.51</v>
+      </c>
+      <c r="LD241">
+        <v>-0.49</v>
+      </c>
+      <c r="LE241">
+        <v>0.77</v>
+      </c>
+      <c r="LF241">
+        <v>-0.2</v>
+      </c>
+      <c r="LG241">
+        <v>-0.57</v>
+      </c>
+      <c r="LH241">
+        <v>0.87</v>
+      </c>
+      <c r="LI241">
+        <v>-0.08518042188185117</v>
+      </c>
+      <c r="LJ241">
+        <v>-0.3457899118301905</v>
+      </c>
+      <c r="LK241">
+        <v>1.269021508526655</v>
+      </c>
+      <c r="LL241">
+        <v>0.1447186682093004</v>
+      </c>
+      <c r="LM241">
+        <v>-0.3082831682982593</v>
+      </c>
+      <c r="LN241">
+        <v>0.974416282211682</v>
+      </c>
+      <c r="LO241">
+        <v>0.01338847405725901</v>
+      </c>
+      <c r="LP241">
+        <v>-0.5033176734265581</v>
+      </c>
+      <c r="LQ241">
+        <v>0.9056980871863685</v>
+      </c>
+      <c r="LR241">
+        <v>0.1700057275223986</v>
+      </c>
+      <c r="LS241">
+        <v>-0.5007154282850765</v>
+      </c>
+      <c r="LT241">
+        <v>0.3156920900516845</v>
+      </c>
+      <c r="LU241">
+        <v>0.1869298018336823</v>
+      </c>
+      <c r="LV241">
+        <v>-0.5858714532698478</v>
+      </c>
+    </row>
+    <row r="242" spans="1:334">
+      <c r="A242" s="1">
+        <v>44249.45614105574</v>
+      </c>
+      <c r="KS242">
+        <v>-0.06</v>
+      </c>
+      <c r="KT242">
+        <v>-0.66</v>
+      </c>
+      <c r="KU242">
+        <v>0.16</v>
+      </c>
+      <c r="KV242">
+        <v>0.3564931313043436</v>
+      </c>
+      <c r="KW242">
+        <v>-0.5054240339718596</v>
+      </c>
+      <c r="KX242">
+        <v>-0.06</v>
+      </c>
+      <c r="KY242">
+        <v>0.44</v>
+      </c>
+      <c r="KZ242">
+        <v>-0.6648900285533751</v>
+      </c>
+      <c r="LA242">
+        <v>-0.8</v>
+      </c>
+      <c r="LB242">
+        <v>0.27</v>
+      </c>
+      <c r="LC242">
+        <v>-0.51</v>
+      </c>
+      <c r="LD242">
+        <v>-0.49</v>
+      </c>
+      <c r="LE242">
+        <v>0.77</v>
+      </c>
+      <c r="LF242">
+        <v>-0.1999819959034377</v>
+      </c>
+      <c r="LG242">
+        <v>-0.57</v>
+      </c>
+      <c r="LH242">
+        <v>0.87</v>
+      </c>
+      <c r="LI242">
+        <v>-0.03129958846408532</v>
+      </c>
+      <c r="LJ242">
+        <v>-0.3133586946740912</v>
+      </c>
+      <c r="LK242">
+        <v>1.319173859237129</v>
+      </c>
+      <c r="LL242">
+        <v>0.2102188754372808</v>
+      </c>
+      <c r="LM242">
+        <v>-0.1850429232440216</v>
+      </c>
+      <c r="LN242">
+        <v>1.077740803118755</v>
+      </c>
+      <c r="LO242">
+        <v>0.2280676693953132</v>
+      </c>
+      <c r="LP242">
+        <v>-0.2603029629880125</v>
+      </c>
+      <c r="LQ242">
+        <v>1.152550363425921</v>
+      </c>
+      <c r="LR242">
+        <v>0.4156897740775549</v>
+      </c>
+      <c r="LS242">
+        <v>-0.2801418781736147</v>
+      </c>
+      <c r="LT242">
+        <v>0.4585426931753286</v>
+      </c>
+      <c r="LU242">
+        <v>0.3269178805323693</v>
+      </c>
+      <c r="LV242">
+        <v>-0.4596663782949568</v>
       </c>
     </row>
   </sheetData>
